--- a/dataset/merged_customer_data.xlsx
+++ b/dataset/merged_customer_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L220"/>
+  <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,11 +541,7 @@
       <c r="K2" t="n">
         <v>1.3</v>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -589,11 +585,7 @@
       <c r="K3" t="n">
         <v>1.6</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -637,11 +629,7 @@
       <c r="K4" t="n">
         <v>3.6</v>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -685,11 +673,7 @@
       <c r="K5" t="n">
         <v>4.3</v>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -733,11 +717,7 @@
       <c r="K6" t="n">
         <v>4.3</v>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -781,11 +761,7 @@
       <c r="K7" t="n">
         <v>4.8</v>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -829,11 +805,7 @@
       <c r="K8" t="n">
         <v>4.8</v>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -877,11 +849,7 @@
       <c r="K9" t="n">
         <v>4.8</v>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -925,11 +893,7 @@
       <c r="K10" t="n">
         <v>4.8</v>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -973,11 +937,7 @@
       <c r="K11" t="n">
         <v>2.6</v>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1021,11 +981,7 @@
       <c r="K12" t="n">
         <v>2</v>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1069,11 +1025,7 @@
       <c r="K13" t="n">
         <v>2.9</v>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1117,11 +1069,7 @@
       <c r="K14" t="n">
         <v>1.4</v>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1165,11 +1113,7 @@
       <c r="K15" t="n">
         <v>3</v>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1213,11 +1157,7 @@
       <c r="K16" t="n">
         <v>3.6</v>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1261,11 +1201,7 @@
       <c r="K17" t="n">
         <v>1.4</v>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1309,11 +1245,7 @@
       <c r="K18" t="n">
         <v>3</v>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1357,11 +1289,7 @@
       <c r="K19" t="n">
         <v>3.6</v>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1405,11 +1333,7 @@
       <c r="K20" t="n">
         <v>1.4</v>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1453,11 +1377,7 @@
       <c r="K21" t="n">
         <v>3</v>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1501,11 +1421,7 @@
       <c r="K22" t="n">
         <v>3.6</v>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1549,11 +1465,7 @@
       <c r="K23" t="n">
         <v>1.2</v>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1597,11 +1509,7 @@
       <c r="K24" t="n">
         <v>2.8</v>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1645,11 +1553,7 @@
       <c r="K25" t="n">
         <v>2.8</v>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1693,11 +1597,7 @@
       <c r="K26" t="n">
         <v>2.9</v>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1741,11 +1641,7 @@
       <c r="K27" t="n">
         <v>3.8</v>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1789,11 +1685,7 @@
       <c r="K28" t="n">
         <v>2.9</v>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1837,11 +1729,7 @@
       <c r="K29" t="n">
         <v>3.8</v>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1885,11 +1773,7 @@
       <c r="K30" t="n">
         <v>4.4</v>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1933,11 +1817,7 @@
       <c r="K31" t="n">
         <v>2.5</v>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1981,11 +1861,7 @@
       <c r="K32" t="n">
         <v>1.3</v>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2029,11 +1905,7 @@
       <c r="K33" t="n">
         <v>4.4</v>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2077,11 +1949,7 @@
       <c r="K34" t="n">
         <v>2.5</v>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2125,11 +1993,7 @@
       <c r="K35" t="n">
         <v>1.3</v>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2173,11 +2037,7 @@
       <c r="K36" t="n">
         <v>4.4</v>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2221,11 +2081,7 @@
       <c r="K37" t="n">
         <v>2.5</v>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2269,11 +2125,7 @@
       <c r="K38" t="n">
         <v>1.3</v>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2317,11 +2169,7 @@
       <c r="K39" t="n">
         <v>4.4</v>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2365,11 +2213,7 @@
       <c r="K40" t="n">
         <v>2.5</v>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2413,11 +2257,7 @@
       <c r="K41" t="n">
         <v>1.3</v>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2461,11 +2301,7 @@
       <c r="K42" t="n">
         <v>4.4</v>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2509,11 +2345,7 @@
       <c r="K43" t="n">
         <v>2.5</v>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2557,11 +2389,7 @@
       <c r="K44" t="n">
         <v>1.3</v>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2605,11 +2433,7 @@
       <c r="K45" t="n">
         <v>1.8</v>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2653,11 +2477,7 @@
       <c r="K46" t="n">
         <v>1.8</v>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2701,11 +2521,7 @@
       <c r="K47" t="n">
         <v>4.8</v>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2749,11 +2565,7 @@
       <c r="K48" t="n">
         <v>4.8</v>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2797,11 +2609,7 @@
       <c r="K49" t="n">
         <v>4.8</v>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2845,11 +2653,7 @@
       <c r="K50" t="n">
         <v>3.5</v>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2893,11 +2697,7 @@
       <c r="K51" t="n">
         <v>3.2</v>
       </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2941,11 +2741,7 @@
       <c r="K52" t="n">
         <v>3.5</v>
       </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2989,11 +2785,7 @@
       <c r="K53" t="n">
         <v>3.2</v>
       </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3037,11 +2829,7 @@
       <c r="K54" t="n">
         <v>4.1</v>
       </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3085,11 +2873,7 @@
       <c r="K55" t="n">
         <v>4.2</v>
       </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3133,11 +2917,7 @@
       <c r="K56" t="n">
         <v>4.1</v>
       </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3181,11 +2961,7 @@
       <c r="K57" t="n">
         <v>4.2</v>
       </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3229,11 +3005,7 @@
       <c r="K58" t="n">
         <v>4.1</v>
       </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3277,11 +3049,7 @@
       <c r="K59" t="n">
         <v>4.2</v>
       </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3325,11 +3093,7 @@
       <c r="K60" t="n">
         <v>1</v>
       </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3373,11 +3137,7 @@
       <c r="K61" t="n">
         <v>1</v>
       </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3421,11 +3181,7 @@
       <c r="K62" t="n">
         <v>1</v>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3469,11 +3225,7 @@
       <c r="K63" t="n">
         <v>1</v>
       </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3517,11 +3269,7 @@
       <c r="K64" t="n">
         <v>4.5</v>
       </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3565,11 +3313,7 @@
       <c r="K65" t="n">
         <v>3.5</v>
       </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3613,11 +3357,7 @@
       <c r="K66" t="n">
         <v>3.1</v>
       </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3661,11 +3401,7 @@
       <c r="K67" t="n">
         <v>4</v>
       </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -3709,11 +3445,7 @@
       <c r="K68" t="n">
         <v>3.2</v>
       </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -3757,11 +3489,7 @@
       <c r="K69" t="n">
         <v>4</v>
       </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -3805,11 +3533,7 @@
       <c r="K70" t="n">
         <v>3.2</v>
       </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3853,11 +3577,7 @@
       <c r="K71" t="n">
         <v>3.3</v>
       </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3901,11 +3621,7 @@
       <c r="K72" t="n">
         <v>3.3</v>
       </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3949,11 +3665,7 @@
       <c r="K73" t="n">
         <v>3.3</v>
       </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3997,11 +3709,7 @@
       <c r="K74" t="n">
         <v>3.6</v>
       </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4045,11 +3753,7 @@
       <c r="K75" t="n">
         <v>3.6</v>
       </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4093,11 +3797,7 @@
       <c r="K76" t="n">
         <v>3.6</v>
       </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -4141,11 +3841,7 @@
       <c r="K77" t="n">
         <v>3.6</v>
       </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -4189,11 +3885,7 @@
       <c r="K78" t="n">
         <v>1.7</v>
       </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -4237,11 +3929,7 @@
       <c r="K79" t="n">
         <v>4.8</v>
       </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -4285,11 +3973,7 @@
       <c r="K80" t="n">
         <v>4.8</v>
       </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -4333,11 +4017,7 @@
       <c r="K81" t="n">
         <v>1.4</v>
       </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -4381,11 +4061,7 @@
       <c r="K82" t="n">
         <v>4.5</v>
       </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -4429,11 +4105,7 @@
       <c r="K83" t="n">
         <v>2.8</v>
       </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -4477,11 +4149,7 @@
       <c r="K84" t="n">
         <v>3.9</v>
       </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -4525,11 +4193,7 @@
       <c r="K85" t="n">
         <v>2.8</v>
       </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -4573,11 +4237,7 @@
       <c r="K86" t="n">
         <v>2.1</v>
       </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -4621,11 +4281,7 @@
       <c r="K87" t="n">
         <v>2.1</v>
       </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -4669,11 +4325,7 @@
       <c r="K88" t="n">
         <v>3</v>
       </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -4717,11 +4369,7 @@
       <c r="K89" t="n">
         <v>3</v>
       </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -4765,11 +4413,7 @@
       <c r="K90" t="n">
         <v>3.9</v>
       </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -4813,11 +4457,7 @@
       <c r="K91" t="n">
         <v>2.9</v>
       </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -4861,11 +4501,7 @@
       <c r="K92" t="n">
         <v>3.9</v>
       </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -4909,11 +4545,7 @@
       <c r="K93" t="n">
         <v>2.9</v>
       </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -4957,11 +4589,7 @@
       <c r="K94" t="n">
         <v>3.9</v>
       </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -5005,11 +4633,7 @@
       <c r="K95" t="n">
         <v>2.9</v>
       </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -5029,7 +4653,9 @@
           <t>Sports</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr"/>
+      <c r="F96" t="n">
+        <v>3</v>
+      </c>
       <c r="G96" t="inlineStr">
         <is>
           <t>150</t>
@@ -5051,11 +4677,7 @@
       <c r="K96" t="n">
         <v>1.6</v>
       </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -5075,7 +4697,9 @@
           <t>Sports</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr"/>
+      <c r="F97" t="n">
+        <v>3</v>
+      </c>
       <c r="G97" t="inlineStr">
         <is>
           <t>150</t>
@@ -5097,11 +4721,7 @@
       <c r="K97" t="n">
         <v>3.6</v>
       </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -5121,7 +4741,9 @@
           <t>Sports</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr"/>
+      <c r="F98" t="n">
+        <v>3</v>
+      </c>
       <c r="G98" t="inlineStr">
         <is>
           <t>150</t>
@@ -5143,11 +4765,7 @@
       <c r="K98" t="n">
         <v>3</v>
       </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -5191,11 +4809,7 @@
       <c r="K99" t="n">
         <v>1.6</v>
       </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -5239,11 +4853,7 @@
       <c r="K100" t="n">
         <v>3.6</v>
       </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -5287,11 +4897,7 @@
       <c r="K101" t="n">
         <v>3</v>
       </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -5311,7 +4917,9 @@
           <t>Electronics</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr"/>
+      <c r="F102" t="n">
+        <v>3</v>
+      </c>
       <c r="G102" t="inlineStr">
         <is>
           <t>154</t>
@@ -5333,11 +4941,7 @@
       <c r="K102" t="n">
         <v>2.9</v>
       </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -5381,11 +4985,7 @@
       <c r="K103" t="n">
         <v>4.2</v>
       </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -5429,11 +5029,7 @@
       <c r="K104" t="n">
         <v>4.2</v>
       </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -5477,11 +5073,7 @@
       <c r="K105" t="n">
         <v>2.7</v>
       </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -5525,11 +5117,7 @@
       <c r="K106" t="n">
         <v>2.7</v>
       </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -5573,11 +5161,7 @@
       <c r="K107" t="n">
         <v>3.5</v>
       </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -5621,11 +5205,7 @@
       <c r="K108" t="n">
         <v>3.8</v>
       </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -5669,11 +5249,7 @@
       <c r="K109" t="n">
         <v>3.9</v>
       </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -5717,11 +5293,7 @@
       <c r="K110" t="n">
         <v>3.8</v>
       </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -5765,11 +5337,7 @@
       <c r="K111" t="n">
         <v>3.9</v>
       </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -5813,11 +5381,7 @@
       <c r="K112" t="n">
         <v>2.3</v>
       </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -5861,11 +5425,7 @@
       <c r="K113" t="n">
         <v>3.6</v>
       </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -5909,11 +5469,7 @@
       <c r="K114" t="n">
         <v>2.7</v>
       </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -5957,11 +5513,7 @@
       <c r="K115" t="n">
         <v>2.3</v>
       </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -6005,11 +5557,7 @@
       <c r="K116" t="n">
         <v>3.6</v>
       </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -6053,11 +5601,7 @@
       <c r="K117" t="n">
         <v>2.7</v>
       </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -6101,11 +5645,7 @@
       <c r="K118" t="n">
         <v>2.3</v>
       </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -6149,11 +5689,7 @@
       <c r="K119" t="n">
         <v>3.6</v>
       </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -6197,11 +5733,7 @@
       <c r="K120" t="n">
         <v>2.7</v>
       </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -6245,11 +5777,7 @@
       <c r="K121" t="n">
         <v>2.7</v>
       </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -6293,11 +5821,7 @@
       <c r="K122" t="n">
         <v>1</v>
       </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -6341,11 +5865,7 @@
       <c r="K123" t="n">
         <v>2.7</v>
       </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -6389,11 +5909,7 @@
       <c r="K124" t="n">
         <v>1</v>
       </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -6437,11 +5953,7 @@
       <c r="K125" t="n">
         <v>2.7</v>
       </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -6485,11 +5997,7 @@
       <c r="K126" t="n">
         <v>1</v>
       </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -6533,11 +6041,7 @@
       <c r="K127" t="n">
         <v>2.7</v>
       </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -6581,11 +6085,7 @@
       <c r="K128" t="n">
         <v>4.1</v>
       </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -6629,11 +6129,7 @@
       <c r="K129" t="n">
         <v>3.8</v>
       </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -6677,32 +6173,28 @@
       <c r="K130" t="n">
         <v>3.8</v>
       </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
         <v>189</v>
       </c>
       <c r="B131" t="n">
-        <v>1057</v>
+        <v>1081</v>
       </c>
       <c r="C131" t="n">
-        <v>282</v>
+        <v>344</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45348</v>
+        <v>45372</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6716,20 +6208,16 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>LinkedIn</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="K131" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+        <v>2.7</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -6749,7 +6237,9 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr"/>
+      <c r="F132" t="n">
+        <v>3</v>
+      </c>
       <c r="G132" t="inlineStr">
         <is>
           <t>189</t>
@@ -6762,20 +6252,16 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>LinkedIn</t>
+          <t>TikTok</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="K132" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+        <v>4.1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -6795,7 +6281,9 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr"/>
+      <c r="F133" t="n">
+        <v>3</v>
+      </c>
       <c r="G133" t="inlineStr">
         <is>
           <t>189</t>
@@ -6808,20 +6296,16 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>TikTok</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K133" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+        <v>3.8</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -6841,7 +6325,9 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr"/>
+      <c r="F134" t="n">
+        <v>3</v>
+      </c>
       <c r="G134" t="inlineStr">
         <is>
           <t>189</t>
@@ -6854,40 +6340,38 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="K134" t="n">
         <v>3.8</v>
       </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
         <v>189</v>
       </c>
       <c r="B135" t="n">
-        <v>1081</v>
+        <v>1149</v>
       </c>
       <c r="C135" t="n">
-        <v>344</v>
+        <v>178</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45372</v>
+        <v>45440</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Books</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr"/>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>3</v>
+      </c>
       <c r="G135" t="inlineStr">
         <is>
           <t>189</t>
@@ -6900,40 +6384,38 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>LinkedIn</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="K135" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+        <v>2.7</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
         <v>189</v>
       </c>
       <c r="B136" t="n">
-        <v>1081</v>
+        <v>1149</v>
       </c>
       <c r="C136" t="n">
-        <v>344</v>
+        <v>178</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45372</v>
+        <v>45440</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Books</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr"/>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>3</v>
+      </c>
       <c r="G136" t="inlineStr">
         <is>
           <t>189</t>
@@ -6946,20 +6428,16 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>TikTok</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="K136" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+        <v>4.1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -6994,20 +6472,16 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>LinkedIn</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K137" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+        <v>3.8</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -7042,129 +6516,117 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>TikTok</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="K138" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+        <v>3.8</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B139" t="n">
-        <v>1149</v>
+        <v>1060</v>
       </c>
       <c r="C139" t="n">
-        <v>178</v>
+        <v>247</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45440</v>
+        <v>45351</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Sports</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>183</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>A189</t>
+          <t>A183</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>TikTok</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K139" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+        <v>4.1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B140" t="n">
-        <v>1149</v>
+        <v>1060</v>
       </c>
       <c r="C140" t="n">
-        <v>178</v>
+        <v>247</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45440</v>
+        <v>45351</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Sports</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>183</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>A189</t>
+          <t>A183</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>TikTok</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="K140" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="B141" t="n">
-        <v>1149</v>
+        <v>1064</v>
       </c>
       <c r="C141" t="n">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45440</v>
+        <v>45355</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -7172,295 +6634,271 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>143</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>A189</t>
+          <t>A143</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="K141" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+        <v>1.2</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="B142" t="n">
-        <v>1060</v>
+        <v>1082</v>
       </c>
       <c r="C142" t="n">
-        <v>247</v>
+        <v>435</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45351</v>
+        <v>45373</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>143</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>A183</t>
+          <t>A143</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>TikTok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="K142" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+        <v>1.2</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="B143" t="n">
-        <v>1060</v>
+        <v>1138</v>
       </c>
       <c r="C143" t="n">
-        <v>247</v>
+        <v>196</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45351</v>
+        <v>45429</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Sports</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>143</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>A183</t>
+          <t>A143</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>TikTok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K143" t="n">
-        <v>5</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+        <v>1.2</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="B144" t="n">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C144" t="n">
-        <v>214</v>
+        <v>274</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Sports</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>107</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>A143</t>
+          <t>A107</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="K144" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+        <v>1.9</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="B145" t="n">
-        <v>1082</v>
+        <v>1065</v>
       </c>
       <c r="C145" t="n">
-        <v>435</v>
+        <v>274</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>45373</v>
+        <v>45356</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>107</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>A143</t>
+          <t>A107</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K145" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+        <v>4.4</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="B146" t="n">
-        <v>1138</v>
+        <v>1065</v>
       </c>
       <c r="C146" t="n">
-        <v>196</v>
+        <v>274</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>45429</v>
+        <v>45356</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Sports</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>107</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>A143</t>
+          <t>A107</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K146" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+        <v>4.2</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
         <v>107</v>
       </c>
       <c r="B147" t="n">
-        <v>1065</v>
+        <v>1114</v>
       </c>
       <c r="C147" t="n">
-        <v>274</v>
+        <v>450</v>
       </c>
       <c r="D147" s="2" t="n">
-        <v>45356</v>
+        <v>45405</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7483,32 +6921,28 @@
       <c r="K147" t="n">
         <v>1.9</v>
       </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
         <v>107</v>
       </c>
       <c r="B148" t="n">
-        <v>1065</v>
+        <v>1114</v>
       </c>
       <c r="C148" t="n">
-        <v>274</v>
+        <v>450</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>45356</v>
+        <v>45405</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7531,32 +6965,28 @@
       <c r="K148" t="n">
         <v>4.4</v>
       </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
         <v>107</v>
       </c>
       <c r="B149" t="n">
-        <v>1065</v>
+        <v>1114</v>
       </c>
       <c r="C149" t="n">
-        <v>274</v>
+        <v>450</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45356</v>
+        <v>45405</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7579,32 +7009,28 @@
       <c r="K149" t="n">
         <v>4.2</v>
       </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
         <v>107</v>
       </c>
       <c r="B150" t="n">
-        <v>1114</v>
+        <v>1119</v>
       </c>
       <c r="C150" t="n">
-        <v>450</v>
+        <v>421</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>45405</v>
+        <v>45410</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Sports</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7627,32 +7053,28 @@
       <c r="K150" t="n">
         <v>1.9</v>
       </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
         <v>107</v>
       </c>
       <c r="B151" t="n">
-        <v>1114</v>
+        <v>1119</v>
       </c>
       <c r="C151" t="n">
-        <v>450</v>
+        <v>421</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>45405</v>
+        <v>45410</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Sports</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7675,32 +7097,28 @@
       <c r="K151" t="n">
         <v>4.4</v>
       </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
         <v>107</v>
       </c>
       <c r="B152" t="n">
-        <v>1114</v>
+        <v>1119</v>
       </c>
       <c r="C152" t="n">
-        <v>450</v>
+        <v>421</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>45405</v>
+        <v>45410</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Sports</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7723,216 +7141,196 @@
       <c r="K152" t="n">
         <v>4.2</v>
       </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="B153" t="n">
-        <v>1119</v>
+        <v>1068</v>
       </c>
       <c r="C153" t="n">
-        <v>421</v>
+        <v>221</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>45410</v>
+        <v>45359</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Sports</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>177</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>A107</t>
+          <t>A177</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>LinkedIn</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="K153" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+        <v>1.4</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="B154" t="n">
-        <v>1119</v>
+        <v>1068</v>
       </c>
       <c r="C154" t="n">
-        <v>421</v>
+        <v>221</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>45410</v>
+        <v>45359</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Sports</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>177</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>A107</t>
+          <t>A177</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K154" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+        <v>1.3</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="B155" t="n">
-        <v>1119</v>
+        <v>1092</v>
       </c>
       <c r="C155" t="n">
-        <v>421</v>
+        <v>179</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>45410</v>
+        <v>45383</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Sports</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>177</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>A107</t>
+          <t>A177</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>LinkedIn</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K155" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+        <v>1.4</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
         <v>177</v>
       </c>
       <c r="B156" t="n">
-        <v>1068</v>
+        <v>1092</v>
       </c>
       <c r="C156" t="n">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>45359</v>
+        <v>45383</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="F156" t="n">
+        <v>4</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>A177</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="J156" t="n">
+        <v>65</v>
+      </c>
+      <c r="K156" t="n">
         <v>1.3</v>
       </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>177</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>A177</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>LinkedIn</t>
-        </is>
-      </c>
-      <c r="J156" t="n">
-        <v>77</v>
-      </c>
-      <c r="K156" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
         <v>177</v>
       </c>
       <c r="B157" t="n">
-        <v>1068</v>
+        <v>1145</v>
       </c>
       <c r="C157" t="n">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>45359</v>
+        <v>45436</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -7940,7 +7338,7 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7954,41 +7352,37 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>LinkedIn</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="K157" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+        <v>1.4</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
         <v>177</v>
       </c>
       <c r="B158" t="n">
-        <v>1092</v>
+        <v>1145</v>
       </c>
       <c r="C158" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>45383</v>
+        <v>45436</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -8002,98 +7396,90 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>LinkedIn</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="K158" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+        <v>1.3</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B159" t="n">
-        <v>1092</v>
+        <v>1069</v>
       </c>
       <c r="C159" t="n">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>45383</v>
+        <v>45360</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>180</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>A177</t>
+          <t>A180</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="K159" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+        <v>3.8</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B160" t="n">
-        <v>1145</v>
+        <v>1069</v>
       </c>
       <c r="C160" t="n">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>45436</v>
+        <v>45360</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>180</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>A177</t>
+          <t>A180</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -8102,77 +7488,69 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="K160" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+        <v>2.1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B161" t="n">
-        <v>1145</v>
+        <v>1118</v>
       </c>
       <c r="C161" t="n">
-        <v>177</v>
+        <v>374</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>45436</v>
+        <v>45409</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>180</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>A177</t>
+          <t>A180</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="K161" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+        <v>3.8</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
         <v>180</v>
       </c>
       <c r="B162" t="n">
-        <v>1069</v>
+        <v>1118</v>
       </c>
       <c r="C162" t="n">
-        <v>201</v>
+        <v>374</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>45360</v>
+        <v>45409</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -8180,7 +7558,7 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8194,33 +7572,29 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>LinkedIn</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="K162" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+        <v>2.1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="B163" t="n">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C163" t="n">
-        <v>201</v>
+        <v>364</v>
       </c>
       <c r="D163" s="2" t="n">
-        <v>45360</v>
+        <v>45361</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -8228,64 +7602,60 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>A180</t>
+          <t>A135</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>LinkedIn</t>
+          <t>TikTok</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="K163" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+        <v>1.6</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="B164" t="n">
-        <v>1118</v>
+        <v>1071</v>
       </c>
       <c r="C164" t="n">
-        <v>374</v>
+        <v>423</v>
       </c>
       <c r="D164" s="2" t="n">
-        <v>45409</v>
+        <v>45362</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Sports</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>149</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>A180</t>
+          <t>A149</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -8294,46 +7664,42 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K164" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+        <v>1.3</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="B165" t="n">
-        <v>1118</v>
+        <v>1074</v>
       </c>
       <c r="C165" t="n">
-        <v>374</v>
+        <v>282</v>
       </c>
       <c r="D165" s="2" t="n">
-        <v>45409</v>
+        <v>45365</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>105</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>A180</t>
+          <t>A105</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -8342,123 +7708,113 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="K165" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+        <v>4.9</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="B166" t="n">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="C166" t="n">
-        <v>364</v>
+        <v>282</v>
       </c>
       <c r="D166" s="2" t="n">
-        <v>45361</v>
+        <v>45365</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Electronics</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr"/>
+          <t>Books</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>1.5</v>
+      </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>105</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>A135</t>
+          <t>A105</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>TikTok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K166" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+        <v>3.6</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B167" t="n">
-        <v>1071</v>
+        <v>1079</v>
       </c>
       <c r="C167" t="n">
-        <v>423</v>
+        <v>101</v>
       </c>
       <c r="D167" s="2" t="n">
-        <v>45362</v>
+        <v>45370</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Sports</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>162</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>A149</t>
+          <t>A162</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="K167" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+        <v>2.6</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="B168" t="n">
-        <v>1074</v>
+        <v>1079</v>
       </c>
       <c r="C168" t="n">
-        <v>282</v>
+        <v>101</v>
       </c>
       <c r="D168" s="2" t="n">
-        <v>45365</v>
+        <v>45370</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -8466,47 +7822,43 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>162</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>A105</t>
+          <t>A162</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>LinkedIn</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="K168" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+        <v>4.8</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="B169" t="n">
-        <v>1074</v>
+        <v>1116</v>
       </c>
       <c r="C169" t="n">
-        <v>282</v>
+        <v>343</v>
       </c>
       <c r="D169" s="2" t="n">
-        <v>45365</v>
+        <v>45407</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -8514,47 +7866,43 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>162</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>A105</t>
+          <t>A162</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K169" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+        <v>2.6</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
         <v>162</v>
       </c>
       <c r="B170" t="n">
-        <v>1079</v>
+        <v>1116</v>
       </c>
       <c r="C170" t="n">
-        <v>101</v>
+        <v>343</v>
       </c>
       <c r="D170" s="2" t="n">
-        <v>45370</v>
+        <v>45407</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -8562,7 +7910,7 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8580,33 +7928,29 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="K170" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+        <v>4.8</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="B171" t="n">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="C171" t="n">
-        <v>101</v>
+        <v>436</v>
       </c>
       <c r="D171" s="2" t="n">
-        <v>45370</v>
+        <v>45374</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Sports</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -8614,12 +7958,12 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>133</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>A162</t>
+          <t>A133</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -8628,33 +7972,29 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K171" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+        <v>1.9</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="B172" t="n">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="C172" t="n">
-        <v>101</v>
+        <v>436</v>
       </c>
       <c r="D172" s="2" t="n">
-        <v>45370</v>
+        <v>45374</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Sports</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -8662,12 +8002,12 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>133</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>A162</t>
+          <t>A133</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -8681,89 +8021,81 @@
       <c r="K172" t="n">
         <v>4.8</v>
       </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="B173" t="n">
-        <v>1116</v>
+        <v>1083</v>
       </c>
       <c r="C173" t="n">
-        <v>343</v>
+        <v>436</v>
       </c>
       <c r="D173" s="2" t="n">
-        <v>45407</v>
+        <v>45374</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Sports</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>133</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>A162</t>
+          <t>A133</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="K173" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+        <v>2.7</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="B174" t="n">
-        <v>1116</v>
+        <v>1130</v>
       </c>
       <c r="C174" t="n">
-        <v>343</v>
+        <v>398</v>
       </c>
       <c r="D174" s="2" t="n">
-        <v>45407</v>
+        <v>45421</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>133</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>A162</t>
+          <t>A133</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -8772,46 +8104,42 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K174" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+        <v>1.9</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="B175" t="n">
-        <v>1116</v>
+        <v>1130</v>
       </c>
       <c r="C175" t="n">
-        <v>343</v>
+        <v>398</v>
       </c>
       <c r="D175" s="2" t="n">
-        <v>45407</v>
+        <v>45421</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>133</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>A162</t>
+          <t>A133</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -8825,32 +8153,28 @@
       <c r="K175" t="n">
         <v>4.8</v>
       </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
         <v>133</v>
       </c>
       <c r="B176" t="n">
-        <v>1083</v>
+        <v>1130</v>
       </c>
       <c r="C176" t="n">
-        <v>436</v>
+        <v>398</v>
       </c>
       <c r="D176" s="2" t="n">
-        <v>45374</v>
+        <v>45421</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Sports</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8864,129 +8188,117 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="K176" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+        <v>2.7</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="B177" t="n">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C177" t="n">
-        <v>436</v>
+        <v>162</v>
       </c>
       <c r="D177" s="2" t="n">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Sports</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>173</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>A133</t>
+          <t>A173</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>TikTok</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K177" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+        <v>4.3</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="B178" t="n">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C178" t="n">
-        <v>436</v>
+        <v>162</v>
       </c>
       <c r="D178" s="2" t="n">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Sports</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>173</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>A133</t>
+          <t>A173</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="K178" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+        <v>3.9</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="B179" t="n">
-        <v>1130</v>
+        <v>1088</v>
       </c>
       <c r="C179" t="n">
-        <v>398</v>
+        <v>130</v>
       </c>
       <c r="D179" s="2" t="n">
-        <v>45421</v>
+        <v>45379</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -8994,64 +8306,60 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>194</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>A133</t>
+          <t>A194</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>LinkedIn</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="K179" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B180" t="n">
-        <v>1130</v>
+        <v>1089</v>
       </c>
       <c r="C180" t="n">
-        <v>398</v>
+        <v>236</v>
       </c>
       <c r="D180" s="2" t="n">
-        <v>45421</v>
+        <v>45380</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>147</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>A133</t>
+          <t>A147</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -9060,173 +8368,157 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K180" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B181" t="n">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="C181" t="n">
-        <v>398</v>
+        <v>197</v>
       </c>
       <c r="D181" s="2" t="n">
-        <v>45421</v>
+        <v>45423</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>147</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>A133</t>
+          <t>A147</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="K181" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="B182" t="n">
-        <v>1084</v>
+        <v>1095</v>
       </c>
       <c r="C182" t="n">
-        <v>162</v>
+        <v>392</v>
       </c>
       <c r="D182" s="2" t="n">
-        <v>45375</v>
+        <v>45386</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>139</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>A173</t>
+          <t>A139</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>TikTok</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="K182" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1084</v>
+        <v>1098</v>
       </c>
       <c r="C183" t="n">
-        <v>162</v>
+        <v>434</v>
       </c>
       <c r="D183" s="2" t="n">
-        <v>45375</v>
+        <v>45389</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>181</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>A173</t>
+          <t>A181</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="K183" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+        <v>2.1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>194</v>
+        <v>125</v>
       </c>
       <c r="B184" t="n">
-        <v>1088</v>
+        <v>1101</v>
       </c>
       <c r="C184" t="n">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="D184" s="2" t="n">
-        <v>45379</v>
+        <v>45392</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -9234,16 +8526,16 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>125</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>A194</t>
+          <t>A125</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -9252,92 +8544,86 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="K184" t="n">
-        <v>4</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+        <v>4.7</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="B185" t="n">
-        <v>1089</v>
+        <v>1101</v>
       </c>
       <c r="C185" t="n">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="D185" s="2" t="n">
-        <v>45380</v>
+        <v>45392</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Groceries</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr"/>
+          <t>Electronics</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>3</v>
+      </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>125</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>A147</t>
+          <t>A125</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="K185" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+        <v>3.2</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="B186" t="n">
-        <v>1132</v>
+        <v>1101</v>
       </c>
       <c r="C186" t="n">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="D186" s="2" t="n">
-        <v>45423</v>
+        <v>45392</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>125</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>A147</t>
+          <t>A125</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -9346,46 +8632,42 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="K186" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+        <v>4.9</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B187" t="n">
-        <v>1095</v>
+        <v>1101</v>
       </c>
       <c r="C187" t="n">
-        <v>392</v>
+        <v>179</v>
       </c>
       <c r="D187" s="2" t="n">
-        <v>45386</v>
+        <v>45392</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>125</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>A139</t>
+          <t>A125</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -9394,90 +8676,86 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K187" t="n">
-        <v>4</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="B188" t="n">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="C188" t="n">
-        <v>434</v>
+        <v>267</v>
       </c>
       <c r="D188" s="2" t="n">
-        <v>45389</v>
+        <v>45395</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Clothing</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr"/>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>2.3</v>
+      </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>A181</t>
+          <t>A140</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>LinkedIn</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="K188" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+        <v>3.1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B189" t="n">
-        <v>1101</v>
+        <v>1124</v>
       </c>
       <c r="C189" t="n">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="D189" s="2" t="n">
-        <v>45392</v>
+        <v>45415</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Electronics</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr"/>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>1.6</v>
+      </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>A125</t>
+          <t>A140</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -9486,44 +8764,42 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="K189" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+        <v>3.1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B190" t="n">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C190" t="n">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="D190" s="2" t="n">
-        <v>45392</v>
+        <v>45396</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Electronics</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr"/>
+          <t>Books</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>4.8</v>
+      </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>128</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>A125</t>
+          <t>A128</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -9532,44 +8808,42 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="K190" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="B191" t="n">
-        <v>1101</v>
+        <v>1107</v>
       </c>
       <c r="C191" t="n">
-        <v>179</v>
+        <v>465</v>
       </c>
       <c r="D191" s="2" t="n">
-        <v>45392</v>
+        <v>45398</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Electronics</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr"/>
+          <t>Clothing</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>3.3</v>
+      </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>144</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>A125</t>
+          <t>A144</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -9578,44 +8852,42 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K191" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+        <v>1.3</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="B192" t="n">
-        <v>1101</v>
+        <v>1113</v>
       </c>
       <c r="C192" t="n">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D192" s="2" t="n">
-        <v>45392</v>
+        <v>45404</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Electronics</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr"/>
+          <t>Clothing</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>4</v>
+      </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>A125</t>
+          <t>A100</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -9624,219 +8896,201 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K192" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+        <v>4.4</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="B193" t="n">
-        <v>1101</v>
+        <v>1113</v>
       </c>
       <c r="C193" t="n">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D193" s="2" t="n">
-        <v>45392</v>
+        <v>45404</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Electronics</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr"/>
+          <t>Clothing</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>4</v>
+      </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>A125</t>
+          <t>A100</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>LinkedIn</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="K193" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+        <v>4.4</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="B194" t="n">
-        <v>1104</v>
+        <v>1147</v>
       </c>
       <c r="C194" t="n">
-        <v>267</v>
+        <v>387</v>
       </c>
       <c r="D194" s="2" t="n">
-        <v>45395</v>
+        <v>45438</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>2.3</v>
+        <v>4.6</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>A140</t>
+          <t>A100</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>LinkedIn</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="K194" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+        <v>4.4</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="B195" t="n">
-        <v>1124</v>
+        <v>1147</v>
       </c>
       <c r="C195" t="n">
-        <v>193</v>
+        <v>387</v>
       </c>
       <c r="D195" s="2" t="n">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>1.6</v>
+        <v>4.6</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>A140</t>
+          <t>A100</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>LinkedIn</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K195" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+        <v>4.4</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B196" t="n">
-        <v>1105</v>
+        <v>1123</v>
       </c>
       <c r="C196" t="n">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c r="D196" s="2" t="n">
-        <v>45396</v>
+        <v>45414</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>4.8</v>
+        <v>1.5</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>104</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>A128</t>
+          <t>A104</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="K196" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+        <v>4.6</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="B197" t="n">
-        <v>1107</v>
+        <v>1123</v>
       </c>
       <c r="C197" t="n">
-        <v>465</v>
+        <v>289</v>
       </c>
       <c r="D197" s="2" t="n">
-        <v>45398</v>
+        <v>45414</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -9844,16 +9098,16 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>104</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>A144</t>
+          <t>A104</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -9862,29 +9116,25 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K197" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+        <v>1.6</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B198" t="n">
-        <v>1113</v>
+        <v>1123</v>
       </c>
       <c r="C198" t="n">
-        <v>172</v>
+        <v>289</v>
       </c>
       <c r="D198" s="2" t="n">
-        <v>45404</v>
+        <v>45414</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -9892,47 +9142,43 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>104</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>A100</t>
+          <t>A104</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K198" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+        <v>2.6</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B199" t="n">
-        <v>1113</v>
+        <v>1148</v>
       </c>
       <c r="C199" t="n">
-        <v>172</v>
+        <v>409</v>
       </c>
       <c r="D199" s="2" t="n">
-        <v>45404</v>
+        <v>45439</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -9940,64 +9186,60 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>104</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>A100</t>
+          <t>A104</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K199" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+        <v>4.6</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B200" t="n">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="C200" t="n">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="D200" s="2" t="n">
-        <v>45438</v>
+        <v>45439</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>4.6</v>
+        <v>1.4</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>104</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>A100</t>
+          <t>A104</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -10006,142 +9248,130 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K200" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+        <v>1.6</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B201" t="n">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="C201" t="n">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="D201" s="2" t="n">
-        <v>45438</v>
+        <v>45439</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Clothing</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>4.6</v>
+        <v>1.4</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>104</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>A100</t>
+          <t>A104</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K201" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+        <v>2.6</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="B202" t="n">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="C202" t="n">
-        <v>289</v>
+        <v>146</v>
       </c>
       <c r="D202" s="2" t="n">
-        <v>45414</v>
+        <v>45416</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>127</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>A104</t>
+          <t>A127</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K202" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+        <v>3.4</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="B203" t="n">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="C203" t="n">
-        <v>289</v>
+        <v>146</v>
       </c>
       <c r="D203" s="2" t="n">
-        <v>45414</v>
+        <v>45416</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>127</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>A104</t>
+          <t>A127</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -10150,29 +9380,25 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="K203" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B204" t="n">
-        <v>1123</v>
+        <v>1129</v>
       </c>
       <c r="C204" t="n">
-        <v>289</v>
+        <v>375</v>
       </c>
       <c r="D204" s="2" t="n">
-        <v>45414</v>
+        <v>45420</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -10180,112 +9406,104 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>A104</t>
+          <t>A111</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="K204" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+        <v>4.1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="B205" t="n">
-        <v>1148</v>
+        <v>1133</v>
       </c>
       <c r="C205" t="n">
-        <v>409</v>
+        <v>301</v>
       </c>
       <c r="D205" s="2" t="n">
-        <v>45439</v>
+        <v>45424</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>122</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>A104</t>
+          <t>A122</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K205" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+        <v>1.7</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="B206" t="n">
-        <v>1148</v>
+        <v>1133</v>
       </c>
       <c r="C206" t="n">
-        <v>409</v>
+        <v>301</v>
       </c>
       <c r="D206" s="2" t="n">
-        <v>45439</v>
+        <v>45424</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>122</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>A104</t>
+          <t>A122</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -10294,684 +9512,364 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K206" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+        <v>4.2</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>104</v>
+        <v>198</v>
       </c>
       <c r="B207" t="n">
-        <v>1148</v>
+        <v>1137</v>
       </c>
       <c r="C207" t="n">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="D207" s="2" t="n">
-        <v>45439</v>
+        <v>45428</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>198</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>A104</t>
+          <t>A198</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K207" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+        <v>4.8</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>127</v>
+        <v>198</v>
       </c>
       <c r="B208" t="n">
-        <v>1125</v>
+        <v>1137</v>
       </c>
       <c r="C208" t="n">
-        <v>146</v>
+        <v>395</v>
       </c>
       <c r="D208" s="2" t="n">
-        <v>45416</v>
+        <v>45428</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>198</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>A127</t>
+          <t>A198</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K208" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+        <v>1.3</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>127</v>
+        <v>198</v>
       </c>
       <c r="B209" t="n">
-        <v>1125</v>
+        <v>1143</v>
       </c>
       <c r="C209" t="n">
-        <v>146</v>
+        <v>466</v>
       </c>
       <c r="D209" s="2" t="n">
-        <v>45416</v>
+        <v>45434</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>198</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>A127</t>
+          <t>A198</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="K209" t="n">
-        <v>4</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+        <v>4.8</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>111</v>
+        <v>198</v>
       </c>
       <c r="B210" t="n">
-        <v>1129</v>
+        <v>1143</v>
       </c>
       <c r="C210" t="n">
-        <v>375</v>
+        <v>466</v>
       </c>
       <c r="D210" s="2" t="n">
-        <v>45420</v>
+        <v>45434</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Clothing</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>198</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>A111</t>
+          <t>A198</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="K210" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+        <v>1.3</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="B211" t="n">
-        <v>1133</v>
+        <v>1139</v>
       </c>
       <c r="C211" t="n">
-        <v>301</v>
+        <v>197</v>
       </c>
       <c r="D211" s="2" t="n">
-        <v>45424</v>
+        <v>45430</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Sports</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>185</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>A122</t>
+          <t>A185</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>TikTok</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K211" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+        <v>3.4</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="B212" t="n">
-        <v>1133</v>
+        <v>1139</v>
       </c>
       <c r="C212" t="n">
-        <v>301</v>
+        <v>197</v>
       </c>
       <c r="D212" s="2" t="n">
-        <v>45424</v>
+        <v>45430</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Sports</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>185</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>A122</t>
+          <t>A185</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K212" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
+        <v>2.4</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B213" t="n">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="C213" t="n">
-        <v>395</v>
+        <v>197</v>
       </c>
       <c r="D213" s="2" t="n">
-        <v>45428</v>
+        <v>45430</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Sports</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>185</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>A198</t>
+          <t>A185</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>TikTok</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="K213" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+        <v>3.6</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B214" t="n">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="C214" t="n">
-        <v>395</v>
+        <v>197</v>
       </c>
       <c r="D214" s="2" t="n">
-        <v>45428</v>
+        <v>45430</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Books</t>
+          <t>Sports</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>185</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>A198</t>
+          <t>A185</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>TikTok</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="K214" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>198</v>
-      </c>
-      <c r="B215" t="n">
-        <v>1143</v>
-      </c>
-      <c r="C215" t="n">
-        <v>466</v>
-      </c>
-      <c r="D215" s="2" t="n">
-        <v>45434</v>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>Books</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>198</t>
-        </is>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>A198</t>
-        </is>
-      </c>
-      <c r="I215" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="J215" t="n">
-        <v>79</v>
-      </c>
-      <c r="K215" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>198</v>
-      </c>
-      <c r="B216" t="n">
-        <v>1143</v>
-      </c>
-      <c r="C216" t="n">
-        <v>466</v>
-      </c>
-      <c r="D216" s="2" t="n">
-        <v>45434</v>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>Books</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>198</t>
-        </is>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>A198</t>
-        </is>
-      </c>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="J216" t="n">
-        <v>79</v>
-      </c>
-      <c r="K216" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>185</v>
-      </c>
-      <c r="B217" t="n">
-        <v>1139</v>
-      </c>
-      <c r="C217" t="n">
-        <v>197</v>
-      </c>
-      <c r="D217" s="2" t="n">
-        <v>45430</v>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="F217" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>185</t>
-        </is>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>A185</t>
-        </is>
-      </c>
-      <c r="I217" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="J217" t="n">
-        <v>90</v>
-      </c>
-      <c r="K217" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>185</v>
-      </c>
-      <c r="B218" t="n">
-        <v>1139</v>
-      </c>
-      <c r="C218" t="n">
-        <v>197</v>
-      </c>
-      <c r="D218" s="2" t="n">
-        <v>45430</v>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="F218" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>185</t>
-        </is>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>A185</t>
-        </is>
-      </c>
-      <c r="I218" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="J218" t="n">
-        <v>78</v>
-      </c>
-      <c r="K218" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>185</v>
-      </c>
-      <c r="B219" t="n">
-        <v>1139</v>
-      </c>
-      <c r="C219" t="n">
-        <v>197</v>
-      </c>
-      <c r="D219" s="2" t="n">
-        <v>45430</v>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="F219" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>185</t>
-        </is>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>A185</t>
-        </is>
-      </c>
-      <c r="I219" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="J219" t="n">
-        <v>59</v>
-      </c>
-      <c r="K219" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>185</v>
-      </c>
-      <c r="B220" t="n">
-        <v>1139</v>
-      </c>
-      <c r="C220" t="n">
-        <v>197</v>
-      </c>
-      <c r="D220" s="2" t="n">
-        <v>45430</v>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="F220" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t>185</t>
-        </is>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>A185</t>
-        </is>
-      </c>
-      <c r="I220" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="J220" t="n">
-        <v>50</v>
-      </c>
-      <c r="K220" t="n">
         <v>1.5</v>
       </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dataset/merged_customer_data.xlsx
+++ b/dataset/merged_customer_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
